--- a/inst/extdata/fluxes/lf_bay/lf_bay_b_2018-11-16.xlsx
+++ b/inst/extdata/fluxes/lf_bay/lf_bay_b_2018-11-16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/inst/extdata/fluxes/lf_bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CE4F9-39B6-8E48-AA4A-1AB3A350804D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4678C43-6BEC-5D43-8186-D4154B476921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="5500" windowWidth="25600" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
+    <workbookView xWindow="14320" yWindow="5500" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
   <sheets>
     <sheet name="evap" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -205,15 +205,6 @@
     <t>run</t>
   </si>
   <si>
-    <t>14.029</t>
-  </si>
-  <si>
-    <t>499.247</t>
-  </si>
-  <si>
-    <t>773.716</t>
-  </si>
-  <si>
     <t>oxygen</t>
   </si>
   <si>
@@ -224,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,9 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,15 +564,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
@@ -592,9 +584,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -606,9 +598,9 @@
         <v>39.357399999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -620,9 +612,9 @@
         <v>50.972499999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -634,9 +626,9 @@
         <v>50.55</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -648,9 +640,9 @@
         <v>50.244999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -662,9 +654,9 @@
         <v>49.916699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -689,9 +681,9 @@
       <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -711,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -722,7 +714,7 @@
         <v>46959884</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -734,7 +726,7 @@
         <v>25043946</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -746,7 +738,7 @@
         <v>11314859</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -758,7 +750,7 @@
         <v>5899750</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -770,7 +762,7 @@
         <v>3355043</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -781,7 +773,7 @@
         <v>118431</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -798,7 +790,7 @@
         <v>1811842</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -816,7 +808,7 @@
         <v>3354956</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -834,7 +826,7 @@
         <v>2226033</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -852,7 +844,7 @@
         <v>3797553</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -870,7 +862,7 @@
         <v>4731596</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -888,7 +880,7 @@
         <v>4143863</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -906,7 +898,7 @@
         <v>8768198</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -924,7 +916,7 @@
         <v>11471295</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -942,7 +934,7 @@
         <v>8212663</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -960,7 +952,7 @@
         <v>10166974</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -978,7 +970,7 @@
         <v>11435531</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -996,7 +988,7 @@
         <v>11759920</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1006,7 @@
         <v>10014231</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1024,7 @@
         <v>9818437</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1042,7 @@
         <v>16802444</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1060,7 @@
         <v>3625384</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1078,7 @@
         <v>2069593</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1096,7 @@
         <v>2523669</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1114,7 @@
         <v>2129161</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1132,7 @@
         <v>2372294</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1150,7 @@
         <v>1698574</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1168,7 @@
         <v>3471818</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1186,7 @@
         <v>2615232</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1204,7 @@
         <v>4761890</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1222,7 @@
         <v>2182700</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1240,7 @@
         <v>3011198</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1258,7 @@
         <v>3493527</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1276,7 @@
         <v>2324881</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1294,7 @@
         <v>4194619</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1333,9 +1325,9 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1355,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1358,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1369,7 @@
         <v>0.23019999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1388,7 +1380,7 @@
         <v>0.4491</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1391,7 @@
         <v>0.68059999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1410,7 +1402,7 @@
         <v>0.8679</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1413,7 @@
         <v>1.3086</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1424,7 @@
         <v>1.7375</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1435,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1446,7 @@
         <v>0.79779999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1458,7 @@
         <v>0.81950000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +1470,7 @@
         <v>0.77380000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1482,7 @@
         <v>0.76729999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1494,7 @@
         <v>0.79069999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1506,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1518,7 @@
         <v>0.76529999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1530,7 @@
         <v>0.74209999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1542,7 @@
         <v>0.78259999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1562,7 +1554,7 @@
         <v>0.75939999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1566,7 @@
         <v>0.70909999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1578,7 @@
         <v>0.7107</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1598,7 +1590,7 @@
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1602,7 @@
         <v>0.61629999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1622,7 +1614,7 @@
         <v>0.67430000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1634,7 +1626,7 @@
         <v>0.76480000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1638,7 @@
         <v>0.84970000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1658,7 +1650,7 @@
         <v>0.76639999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1662,7 @@
         <v>0.79049999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1674,7 @@
         <v>0.77339999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1686,7 @@
         <v>0.77529999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1706,7 +1698,7 @@
         <v>0.76039999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +1710,7 @@
         <v>0.74060000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1722,7 @@
         <v>0.74229999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1734,7 @@
         <v>0.77139999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1746,7 @@
         <v>0.72889999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1758,7 @@
         <v>0.74319999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1770,7 @@
         <v>0.73009999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +1782,7 @@
         <v>0.70289999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1794,7 @@
         <v>0.71930000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1806,7 @@
         <v>0.7853</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1818,7 @@
         <v>0.77729999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1830,7 @@
         <v>0.7802</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1842,7 @@
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1862,7 +1854,7 @@
         <v>0.81020000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1874,7 +1866,7 @@
         <v>0.79410000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1886,7 +1878,7 @@
         <v>0.83989999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1890,7 @@
         <v>0.80779999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1902,7 @@
         <v>0.83379999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1922,7 +1914,7 @@
         <v>0.84360000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +1926,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1938,7 @@
         <v>0.86180000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1950,7 @@
         <v>0.90590000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1970,7 +1962,7 @@
         <v>0.83830000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1995,9 +1987,9 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -2017,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +2020,7 @@
         <v>115447920</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2031,7 @@
         <v>155454960</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2042,7 @@
         <v>195446624</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2053,7 @@
         <v>299613856</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2064,7 @@
         <v>510556032</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2075,7 @@
         <v>1008391552</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2086,7 @@
         <v>1483653760</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2097,7 @@
         <v>2326217472</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2116,7 +2108,7 @@
         <v>122644648</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2128,7 +2120,7 @@
         <v>123241480</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2132,7 @@
         <v>123966640</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2144,7 @@
         <v>196404384</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2164,7 +2156,7 @@
         <v>196107056</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2176,7 +2168,7 @@
         <v>201888336</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2180,7 @@
         <v>309266240</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2192,7 @@
         <v>333104192</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2204,7 @@
         <v>334816096</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2224,7 +2216,7 @@
         <v>578655040</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2236,7 +2228,7 @@
         <v>574963648</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2240,7 @@
         <v>640420160</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2260,7 +2252,7 @@
         <v>876913600</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2272,7 +2264,7 @@
         <v>854850112</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2276,7 @@
         <v>881761792</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2296,7 +2288,7 @@
         <v>118123400</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2308,7 +2300,7 @@
         <v>121639088</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2320,7 +2312,7 @@
         <v>122785328</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +2324,7 @@
         <v>189450000</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2344,7 +2336,7 @@
         <v>190427776</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2348,7 @@
         <v>184680560</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2368,7 +2360,7 @@
         <v>293941824</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2380,7 +2372,7 @@
         <v>275320192</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2384,7 @@
         <v>294925312</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2396,7 @@
         <v>406411584</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2416,7 +2408,7 @@
         <v>418400640</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2428,7 +2420,7 @@
         <v>436989920</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2432,7 @@
         <v>609798848</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2452,7 +2444,7 @@
         <v>467059040</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2464,7 +2456,7 @@
         <v>587701312</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2468,7 @@
         <v>118007472</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2488,7 +2480,7 @@
         <v>116737736</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2492,7 @@
         <v>122896176</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2504,7 @@
         <v>121376016</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2524,7 +2516,7 @@
         <v>121546624</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2536,7 +2528,7 @@
         <v>119729280</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2548,7 +2540,7 @@
         <v>119084088</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2560,7 +2552,7 @@
         <v>116011056</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2564,7 @@
         <v>117694552</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2584,7 +2576,7 @@
         <v>117387472</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2588,7 @@
         <v>122002744</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2608,7 +2600,7 @@
         <v>121492784</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +2612,7 @@
         <v>120300464</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2624,7 @@
         <v>121334096</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2657,9 +2649,9 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -2679,7 +2671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2690,7 +2682,7 @@
         <v>47025344</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2693,7 @@
         <v>64635584</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2712,7 +2704,7 @@
         <v>78275864</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2723,7 +2715,7 @@
         <v>126511304</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2734,7 +2726,7 @@
         <v>221386224</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2745,7 +2737,7 @@
         <v>334496416</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +2748,7 @@
         <v>438301184</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2759,7 @@
         <v>549920704</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2778,7 +2770,7 @@
         <v>299136736</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2782,7 @@
         <v>313670560</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2802,7 +2794,7 @@
         <v>316440544</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2814,7 +2806,7 @@
         <v>323669312</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2826,7 +2818,7 @@
         <v>307413088</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2838,7 +2830,7 @@
         <v>321398848</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2842,7 @@
         <v>299632576</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2862,7 +2854,7 @@
         <v>285986144</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2874,7 +2866,7 @@
         <v>296189984</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2886,7 +2878,7 @@
         <v>264355552</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2898,7 +2890,7 @@
         <v>257766736</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2910,7 +2902,7 @@
         <v>271709952</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2922,7 +2914,7 @@
         <v>242892512</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2934,7 +2926,7 @@
         <v>221229584</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2946,7 +2938,7 @@
         <v>216623168</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2958,7 +2950,7 @@
         <v>315255648</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2970,7 +2962,7 @@
         <v>305460480</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2982,7 +2974,7 @@
         <v>308109248</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2994,7 +2986,7 @@
         <v>317812448</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3006,7 +2998,7 @@
         <v>313036512</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3018,7 +3010,7 @@
         <v>318913536</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3030,7 +3022,7 @@
         <v>332076288</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3042,7 +3034,7 @@
         <v>292575040</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3054,7 +3046,7 @@
         <v>327165344</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3066,7 +3058,7 @@
         <v>326799040</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3078,7 +3070,7 @@
         <v>297732544</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3090,7 +3082,7 @@
         <v>310496096</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3102,7 +3094,7 @@
         <v>294412896</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3114,7 +3106,7 @@
         <v>292657344</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3126,7 +3118,7 @@
         <v>291840544</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3138,7 +3130,7 @@
         <v>330508736</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3150,7 +3142,7 @@
         <v>334366272</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3162,7 +3154,7 @@
         <v>309032288</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3174,7 +3166,7 @@
         <v>333383200</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +3178,7 @@
         <v>311998080</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3198,7 +3190,7 @@
         <v>330784224</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3210,7 +3202,7 @@
         <v>348284256</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3222,7 +3214,7 @@
         <v>331914400</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3234,7 +3226,7 @@
         <v>342136288</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3246,7 +3238,7 @@
         <v>352986080</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3258,7 +3250,7 @@
         <v>339246240</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3270,7 +3262,7 @@
         <v>344333344</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3282,7 +3274,7 @@
         <v>376036384</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3294,7 +3286,7 @@
         <v>348532608</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3315,13 +3307,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C978D0-9FD8-9042-9B5F-3CF5D620CB7E}">
   <dimension ref="A1:AV51"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="AP37" sqref="AP37:AQ37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -3467,7 +3459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3607,7 +3599,7 @@
         <v>32.651699999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3747,7 +3739,7 @@
         <v>85.541700000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3890,7 +3882,7 @@
         <v>343.90039999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4033,7 +4025,7 @@
         <v>889.66240000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4176,7 +4168,7 @@
         <v>2368.6554999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4313,7 +4305,7 @@
         <v>2055.3310999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4450,7 +4442,7 @@
         <v>1840.6349</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4587,7 +4579,7 @@
         <v>1845.3495</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4724,7 +4716,7 @@
         <v>1823.3551</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4861,7 +4853,7 @@
         <v>2030.8880999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4998,7 +4990,7 @@
         <v>1738.058</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5135,7 +5127,7 @@
         <v>1848.9912999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5272,7 +5264,7 @@
         <v>1993.2222999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5409,7 +5401,7 @@
         <v>1933.8407999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5546,7 +5538,7 @@
         <v>1755.8921</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5683,7 +5675,7 @@
         <v>1899.4819</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5823,7 +5815,7 @@
         <v>2281.7471</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5963,7 +5955,7 @@
         <v>2198.7262999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6100,7 +6092,7 @@
         <v>1826.1727000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6240,7 +6232,7 @@
         <v>2211.2680999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6377,7 +6369,7 @@
         <v>2039.17</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6514,7 +6506,7 @@
         <v>2066.4445999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6651,7 +6643,7 @@
         <v>1970.3339000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6788,7 +6780,7 @@
         <v>2012.6909000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6925,7 +6917,7 @@
         <v>2165.5178000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7062,7 +7054,7 @@
         <v>2102.9272000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -7202,7 +7194,7 @@
         <v>2234.0752000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7342,7 +7334,7 @@
         <v>2321.6304</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7479,7 +7471,7 @@
         <v>1978.6984</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -7619,7 +7611,7 @@
         <v>2297.6981999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7759,7 +7751,7 @@
         <v>2091.1514000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7891,7 @@
         <v>2327.1012999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -8039,7 +8031,7 @@
         <v>2299.2219</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -8179,7 +8171,7 @@
         <v>2255.2192</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8319,7 +8311,7 @@
         <v>2136.3717999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8371,8 +8363,8 @@
       <c r="S37">
         <v>42.903799999999997</v>
       </c>
-      <c r="T37" t="s">
-        <v>55</v>
+      <c r="T37" s="2">
+        <v>14.029</v>
       </c>
       <c r="U37">
         <v>19.068999999999999</v>
@@ -8434,11 +8426,11 @@
       <c r="AO37">
         <v>690.30219999999997</v>
       </c>
-      <c r="AP37" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>57</v>
+      <c r="AP37" s="2">
+        <v>499.24700000000001</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>773.71600000000001</v>
       </c>
       <c r="AR37">
         <v>854.91669999999999</v>
@@ -8456,7 +8448,7 @@
         <v>2233.3755000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8593,7 +8585,7 @@
         <v>2141.8517999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8730,7 +8722,7 @@
         <v>2197.3944999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -8867,7 +8859,7 @@
         <v>1909.4558</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -9004,7 +8996,7 @@
         <v>2207.5027</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -9141,7 +9133,7 @@
         <v>1968.7933</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -9278,7 +9270,7 @@
         <v>2180.9074999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -9415,7 +9407,7 @@
         <v>2236.8366999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -9552,7 +9544,7 @@
         <v>2025.3164999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -9689,7 +9681,7 @@
         <v>1991.1143999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -9826,7 +9818,7 @@
         <v>2087.9443000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -9963,7 +9955,7 @@
         <v>2174.4121</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -10100,7 +10092,7 @@
         <v>2212.6948000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -10237,7 +10229,7 @@
         <v>2105.7865999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
